--- a/par_calc/parameter_calculator.xlsx
+++ b/par_calc/parameter_calculator.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Solar area" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t xml:space="preserve">Description</t>
   </si>
@@ -43,13 +43,22 @@
     <t xml:space="preserve">Effective solar area (m2)</t>
   </si>
   <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Headspace convection coefficient (W/m2-K)</t>
   </si>
   <si>
+    <t xml:space="preserve">Set to high value to exclude</t>
+  </si>
+  <si>
     <t xml:space="preserve">External convection coefficient (W/m2-K)</t>
   </si>
   <si>
     <t xml:space="preserve">Cover thickness (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set to 0 to exclude</t>
   </si>
   <si>
     <t xml:space="preserve">Cover conductivity (W/m-K)</t>
@@ -113,11 +122,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00E+00"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -206,7 +216,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -219,7 +229,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,12 +267,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -300,17 +338,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.59"/>
@@ -356,56 +394,6 @@
       <c r="B5" s="2" t="n">
         <f aca="false">B2*SIN(B4/90*PI()/2)+B3*COS(B4/90*PI()/2)</f>
         <v>389.484675899307</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <f aca="false">1/(1/B7+1/B8+(B9/1000)/B10)</f>
-        <v>22.2222222222222</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="n">
-        <f aca="false">1/B11</f>
-        <v>0.045</v>
       </c>
     </row>
   </sheetData>
@@ -420,78 +408,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="24.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>50</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="n">
         <f aca="false">1/(1/B2+1/B3+(B4/1000)/B5)</f>
-        <v>33.3333333333333</v>
+        <v>99.9990000099999</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9" t="n">
         <f aca="false">1/B6</f>
-        <v>0.03</v>
+        <v>0.0100001</v>
       </c>
     </row>
   </sheetData>
@@ -506,17 +504,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
@@ -532,15 +530,15 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.5</v>
@@ -548,20 +546,20 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B4" s="10" t="n">
         <f aca="false">B3/(B2/100)</f>
-        <v>3.33333333333333</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B5" s="10" t="n">
         <f aca="false">1/B4</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -576,20 +574,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,7 +601,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
@@ -610,7 +609,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>14</v>
@@ -618,7 +617,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.01</v>
@@ -626,7 +625,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.02</v>
@@ -634,9 +633,9 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B6" s="11" t="n">
         <f aca="false">B2/100*B3*B4*86400*B5</f>
         <v>9.6768</v>
       </c>

--- a/par_calc/parameter_calculator.xlsx
+++ b/par_calc/parameter_calculator.xlsx
@@ -8,10 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Solar area" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Air resistance" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Wall resistance" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Autoheating" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Air resistance" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Wall resistance" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Autoheating" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,24 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
     <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projected horizontal area (m2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projected vertical area (m2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average solar elevation (degrees)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effective solar area (m2)</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -122,12 +109,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0.00E+00"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -216,27 +202,23 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -245,7 +227,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -253,26 +239,22 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -338,68 +320,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="24.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>400</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>200</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <f aca="false">B2*SIN(B4/90*PI()/2)+B3*COS(B4/90*PI()/2)</f>
-        <v>389.484675899307</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <f aca="false">1/(1/B2+1/B3+(B4/1000)/B5)</f>
+        <v>99.9990000099999</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <f aca="false">1/B6</f>
+        <v>0.0100001</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -408,94 +416,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="24.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <f aca="false">B3/(B2/100)</f>
+        <v>3.33333333333333</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8" t="n">
-        <f aca="false">1/(1/B2+1/B3+(B4/1000)/B5)</f>
-        <v>99.9990000099999</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9" t="n">
-        <f aca="false">1/B6</f>
-        <v>0.0100001</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <f aca="false">1/B4</f>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -504,77 +486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="10" t="n">
-        <f aca="false">B3/(B2/100)</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="10" t="n">
-        <f aca="false">1/B4</f>
-        <v>0.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -584,24 +496,23 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
@@ -609,7 +520,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>14</v>
@@ -617,7 +528,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.01</v>
@@ -625,7 +536,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.02</v>
@@ -633,9 +544,9 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="B6" s="10" t="n">
         <f aca="false">B2/100*B3*B4*86400*B5</f>
         <v>9.6768</v>
       </c>
@@ -643,7 +554,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
